--- a/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
+++ b/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\FormulaUTFPR_CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F4A4AB-538E-4BAB-9B82-B2748A5EC7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29840E-0400-4365-9376-7073BCC4FA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Bits/s (cycle)</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -737,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,7 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1130,7 @@
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1351,8 +1354,11 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1754,23 +1760,23 @@
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="9">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5">
         <f>J17/(L19*1000)</f>
         <v>0.16281999999999999</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9">
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="5">
         <f>K17/(L19*100)</f>
         <v>0.19259999999999999</v>
       </c>

--- a/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
+++ b/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\FormulaUTFPR_CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29840E-0400-4365-9376-7073BCC4FA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08666212-0303-4DDF-9A76-1ADCCCEF3B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Transmitter</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Acc01</t>
   </si>
   <si>
@@ -185,7 +182,37 @@
     <t>Bits/s (cycle)</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>Gyro01</t>
+  </si>
+  <si>
+    <t>0x406</t>
+  </si>
+  <si>
+    <t>Gyro02</t>
+  </si>
+  <si>
+    <t>0x407</t>
+  </si>
+  <si>
+    <t>Gyro03</t>
+  </si>
+  <si>
+    <t>0x408</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>0x204</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>0x205</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,14 +1150,14 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,42 +1180,42 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
         <f>66+8*D2</f>
@@ -1196,75 +1223,75 @@
       </c>
       <c r="J2" s="1">
         <f>I2*H2</f>
-        <v>1140</v>
+        <v>2280</v>
       </c>
       <c r="K2" s="1">
         <f>(ROUNDUP(H2/10,0))*I2</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I16" si="0">66+8*D3</f>
+        <f t="shared" ref="I3:I6" si="0">66+8*D3</f>
         <v>114</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J16" si="1">I3*H3</f>
-        <v>1140</v>
+        <f t="shared" ref="J3:J6" si="1">I3*H3</f>
+        <v>2280</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K16" si="2">(ROUNDUP(H3/10,0))*I3</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K21" si="2">(ROUNDUP(H3/10,0))*I3</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -1272,34 +1299,34 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>1140</v>
+        <v>2280</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1317,27 +1344,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -1354,437 +1381,624 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f>66+8*D7</f>
+        <v>114</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>1480</v>
+        <f>I7*H7</f>
+        <v>2280</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>20</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f t="shared" ref="I8:I15" si="3">66+8*D8</f>
+        <v>114</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>1640</v>
+        <f t="shared" ref="J8:J15" si="4">I8*H8</f>
+        <v>2280</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>1480</v>
+        <f t="shared" si="4"/>
+        <v>2280</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>1480</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="1">
-        <v>50</v>
-      </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
-        <v>4100</v>
+        <f t="shared" si="4"/>
+        <v>1640</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>740</v>
+        <f t="shared" si="4"/>
+        <v>1480</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>490</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>490</v>
+        <f t="shared" si="4"/>
+        <v>370</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>1480</v>
+        <f t="shared" si="4"/>
+        <v>4100</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I16:I19" si="5">66+8*D16</f>
         <v>74</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" ref="J16:J19" si="6">I16*H16</f>
+        <v>740</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="6"/>
+        <v>2450</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="6"/>
+        <v>2450</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20:I21" si="7">66+8*D20</f>
+        <v>74</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ref="J20:J21" si="8">I20*H20</f>
+        <v>1480</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="2">
+        <f>SUM(J2:J21)</f>
+        <v>30906</v>
+      </c>
+      <c r="K22" s="2">
+        <f>SUM(K2:K21)</f>
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="2">
-        <f>SUM(J2:J16)</f>
-        <v>16282</v>
-      </c>
-      <c r="K17" s="2">
-        <f>SUM(K2:K16)</f>
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="6" t="s">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="5">
+        <f>J22/(L24*1000)</f>
+        <v>0.30906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5">
-        <f>J17/(L19*1000)</f>
-        <v>0.16281999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="5">
-        <f>K17/(L19*100)</f>
-        <v>0.19259999999999999</v>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="5">
+        <f>K22/(L24*100)</f>
+        <v>0.34920000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
+++ b/Firmwares/FormulaUTFPR_CAN/BUSLOAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\FormulaUTFPR_CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08666212-0303-4DDF-9A76-1ADCCCEF3B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56519858-274C-4691-A214-181534443405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanDB" sheetId="1" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="L24" sqref="I24:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
         <v>44</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="5">
         <f>J22/(L24*1000)</f>
-        <v>0.30906</v>
+        <v>6.1811999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="5">
         <f>K22/(L24*100)</f>
-        <v>0.34920000000000001</v>
+        <v>6.9839999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2001,5 +2001,6 @@
     <mergeCell ref="I26:K26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>